--- a/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Toolbars.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Toolbars.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7980" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Objects" sheetId="1" r:id="rId1"/>
+    <sheet name="Objects" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Objects_Toolbar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>textbox</t>
   </si>
@@ -133,9 +133,6 @@
     <t>switchToSingleFrame</t>
   </si>
   <si>
-    <t>getCurrentFrameName</t>
-  </si>
-  <si>
     <t>Items Toolbar</t>
   </si>
   <si>
@@ -149,6 +146,27 @@
   </si>
   <si>
     <t>Ribbon.ListItem.Actions.Start.New.Transmittal-Large</t>
+  </si>
+  <si>
+    <t>textbox_autosuggest_choice</t>
+  </si>
+  <si>
+    <t>textbox_autosuggest_browse</t>
+  </si>
+  <si>
+    <t>selectitembytextfromlist</t>
+  </si>
+  <si>
+    <t>element_enable</t>
+  </si>
+  <si>
+    <t>element_disable</t>
+  </si>
+  <si>
+    <t>element_displayed</t>
+  </si>
+  <si>
+    <t>element_notdisplayed</t>
   </si>
 </sst>
 </file>
@@ -565,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A31"/>
+  <dimension ref="A2:A37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -723,7 +741,37 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -742,9 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -781,7 +827,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -792,7 +838,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -801,12 +847,12 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -815,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -832,12 +878,18 @@
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Objects!$A$2:$A$28</xm:f>
+            <xm:f>Objects!$A$2:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Objects!$A$2:$A$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3 D5:D22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Toolbars.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Toolbars.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>textbox</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Toolbar - Items</t>
   </si>
   <si>
-    <t>Ribbon.ListItem-title</t>
-  </si>
-  <si>
     <t>Toolbar - Items - Start New Tranmittal</t>
   </si>
   <si>
@@ -167,6 +164,12 @@
   </si>
   <si>
     <t>element_notdisplayed</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>.//*[@id='Ribbon.ListItem-title']/a</t>
   </si>
 </sst>
 </file>
@@ -741,37 +744,37 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -841,18 +846,18 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -861,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Toolbars.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Toolbars.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_Sprint1\Fulcrum_FluidTX_Trunk\src\com\proj\objectRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\objectRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>textbox</t>
   </si>
@@ -166,10 +166,7 @@
     <t>element_notdisplayed</t>
   </si>
   <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>.//*[@id='Ribbon.ListItem-title']/a</t>
+    <t>Ribbon.ListItem-title</t>
   </si>
 </sst>
 </file>
@@ -793,9 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -846,13 +841,13 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Toolbars.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/objectRepository/ObjectsFile_Toolbars.xlsx
@@ -858,7 +858,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
